--- a/Competitiontask1.xlsx
+++ b/Competitiontask1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i2kuj\OneDrive\Desktop\Test Analyst\ProjectMars\ProjectMars_Competition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E873F3-625C-4580-B036-56460CC2E1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD048CF-D765-4EDD-8FCF-94A3EAD1F702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{4FD02D8F-5B42-4D41-9607-63DB9B250C20}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4FD02D8F-5B42-4D41-9607-63DB9B250C20}"/>
   </bookViews>
   <sheets>
-    <sheet name="Education " sheetId="1" r:id="rId1"/>
+    <sheet name="Educations " sheetId="1" r:id="rId1"/>
     <sheet name="Certifications " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -790,35 +790,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -830,15 +824,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -847,8 +832,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1A50B3-5189-42DB-9FDE-4AFE23BF3F84}">
   <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="F171" sqref="F171:G175"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164:B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1205,22 +1205,22 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -1228,44 +1228,44 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -1274,194 +1274,194 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="11" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="22"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="22"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="22"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="22"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="22"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="22"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="22"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="22"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="22"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="22"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="22"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="23"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="11" t="s">
         <v>110</v>
       </c>
       <c r="G21" s="10" t="s">
@@ -1470,129 +1470,129 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="11" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="16"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="16"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="16"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="16"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="16"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="11" t="s">
         <v>109</v>
       </c>
       <c r="G32" s="10" t="s">
@@ -1600,130 +1600,130 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="22"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="11" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="16"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="22"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="22"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="16"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="16"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="16"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="16"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="22"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="16"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="16"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="22"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="16"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="16"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="22"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="16"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="16"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="22"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="16"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="16"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="22"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="16"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="23"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="16"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="11" t="s">
         <v>104</v>
       </c>
       <c r="G43" s="10" t="s">
@@ -1731,130 +1731,130 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="22"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="11" t="s">
+      <c r="A44" s="20"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="16"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="22"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="16"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="22"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="16"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="16"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="22"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="16"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="16"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="11"/>
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="22"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="16"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="11"/>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="22"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="16"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="11"/>
       <c r="D49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="16"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="11"/>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="22"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="16"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="16"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="22"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="16"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="16"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="11"/>
       <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="22"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="16"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="16"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="11"/>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="23"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="16"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="11"/>
       <c r="D53" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="26"/>
-      <c r="F53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="11"/>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="11" t="s">
         <v>111</v>
       </c>
       <c r="G54" s="10" t="s">
@@ -1863,129 +1863,129 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="11" t="s">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="25"/>
-      <c r="F55" s="16"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="11"/>
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="16"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="11"/>
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="10"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="16"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="11"/>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="16"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="11"/>
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="10"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="16"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="11"/>
       <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="10"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="16"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="11"/>
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="10"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="25"/>
-      <c r="F61" s="16"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="11"/>
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="10"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="25"/>
-      <c r="F62" s="16"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="11"/>
       <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="10"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
       <c r="D63" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="25"/>
-      <c r="F63" s="16"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="11"/>
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="10"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
       <c r="D64" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E64" s="26"/>
-      <c r="F64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="11"/>
       <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="24" t="s">
+      <c r="E65" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F65" s="11" t="s">
         <v>111</v>
       </c>
       <c r="G65" s="10" t="s">
@@ -1994,129 +1994,129 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="10"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="11" t="s">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="25"/>
-      <c r="F66" s="16"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="11"/>
       <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="10"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="16"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="11"/>
       <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="10"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
       <c r="D68" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="25"/>
-      <c r="F68" s="16"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="11"/>
       <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="10"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
       <c r="D69" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="25"/>
-      <c r="F69" s="16"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="11"/>
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="10"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
       <c r="D70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="25"/>
-      <c r="F70" s="16"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="11"/>
       <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="10"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
       <c r="D71" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E71" s="25"/>
-      <c r="F71" s="16"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="11"/>
       <c r="G71" s="10"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="10"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="25"/>
-      <c r="F72" s="16"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="11"/>
       <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="10"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
       <c r="D73" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E73" s="25"/>
-      <c r="F73" s="16"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="11"/>
       <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="10"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
       <c r="D74" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E74" s="25"/>
-      <c r="F74" s="16"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="11"/>
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="10"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
       <c r="D75" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E75" s="26"/>
-      <c r="F75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="11"/>
       <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="24" t="s">
+      <c r="E76" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F76" s="16" t="s">
+      <c r="F76" s="11" t="s">
         <v>111</v>
       </c>
       <c r="G76" s="10" t="s">
@@ -2125,129 +2125,129 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="10"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="11" t="s">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="25"/>
-      <c r="F77" s="16"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="11"/>
       <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="10"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="16"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="11"/>
       <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="10"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
       <c r="D79" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E79" s="25"/>
-      <c r="F79" s="16"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="11"/>
       <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="10"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
       <c r="D80" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="25"/>
-      <c r="F80" s="16"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="11"/>
       <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="10"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
       <c r="D81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="25"/>
-      <c r="F81" s="16"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="11"/>
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="10"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
       <c r="D82" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E82" s="25"/>
-      <c r="F82" s="16"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="11"/>
       <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="10"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
       <c r="D83" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E83" s="25"/>
-      <c r="F83" s="16"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="11"/>
       <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="10"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
       <c r="D84" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E84" s="25"/>
-      <c r="F84" s="16"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="11"/>
       <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="10"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
       <c r="D85" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E85" s="25"/>
-      <c r="F85" s="16"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="11"/>
       <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="10"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
       <c r="D86" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E86" s="26"/>
-      <c r="F86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="11"/>
       <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="24" t="s">
+      <c r="E87" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F87" s="16" t="s">
+      <c r="F87" s="11" t="s">
         <v>111</v>
       </c>
       <c r="G87" s="10" t="s">
@@ -2256,129 +2256,129 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="10"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="11" t="s">
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="25"/>
-      <c r="F88" s="16"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="11"/>
       <c r="G88" s="10"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="10"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="16"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="11"/>
       <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="10"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
       <c r="D90" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="25"/>
-      <c r="F90" s="16"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="11"/>
       <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="10"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
       <c r="D91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="25"/>
-      <c r="F91" s="16"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="11"/>
       <c r="G91" s="10"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="10"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
       <c r="D92" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E92" s="25"/>
-      <c r="F92" s="16"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="11"/>
       <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="10"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
       <c r="D93" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E93" s="25"/>
-      <c r="F93" s="16"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="11"/>
       <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="10"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
       <c r="D94" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E94" s="25"/>
-      <c r="F94" s="16"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="11"/>
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="10"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
       <c r="D95" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E95" s="25"/>
-      <c r="F95" s="16"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="11"/>
       <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="10"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
       <c r="D96" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E96" s="25"/>
-      <c r="F96" s="16"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="11"/>
       <c r="G96" s="10"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="10"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
       <c r="D97" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E97" s="26"/>
-      <c r="F97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="11"/>
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="24" t="s">
+      <c r="E98" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F98" s="16" t="s">
+      <c r="F98" s="11" t="s">
         <v>111</v>
       </c>
       <c r="G98" s="10" t="s">
@@ -2387,129 +2387,129 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="10"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="11" t="s">
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="25"/>
-      <c r="F99" s="16"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="11"/>
       <c r="G99" s="10"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="10"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="16"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="11"/>
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="10"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
       <c r="D101" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E101" s="25"/>
-      <c r="F101" s="16"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="11"/>
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="10"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
       <c r="D102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="25"/>
-      <c r="F102" s="16"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="11"/>
       <c r="G102" s="10"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="10"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
       <c r="D103" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E103" s="25"/>
-      <c r="F103" s="16"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="11"/>
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="10"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
       <c r="D104" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E104" s="25"/>
-      <c r="F104" s="16"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="11"/>
       <c r="G104" s="10"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="10"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E105" s="25"/>
-      <c r="F105" s="16"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="11"/>
       <c r="G105" s="10"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="10"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
       <c r="D106" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E106" s="25"/>
-      <c r="F106" s="16"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="11"/>
       <c r="G106" s="10"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="10"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
       <c r="D107" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E107" s="25"/>
-      <c r="F107" s="16"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="11"/>
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="10"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
       <c r="D108" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E108" s="26"/>
-      <c r="F108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="11"/>
       <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C109" s="16" t="s">
+      <c r="C109" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F109" s="16" t="s">
+      <c r="F109" s="11" t="s">
         <v>111</v>
       </c>
       <c r="G109" s="10" t="s">
@@ -2518,129 +2518,129 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="10"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="11" t="s">
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
       <c r="G110" s="10"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="10"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="10"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
       <c r="D112" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="10"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
       <c r="D113" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
       <c r="G113" s="10"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="10"/>
-      <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
       <c r="D114" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="10"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="16"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
       <c r="D115" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="10"/>
-      <c r="B116" s="16"/>
-      <c r="C116" s="16"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
       <c r="D116" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
       <c r="G116" s="10"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="10"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
       <c r="D117" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
       <c r="G117" s="10"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="10"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="16"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
       <c r="D118" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
       <c r="G118" s="10"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="10"/>
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
       <c r="D119" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
       <c r="G119" s="10"/>
     </row>
     <row r="120" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C120" s="16" t="s">
+      <c r="C120" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F120" s="16" t="s">
+      <c r="F120" s="11" t="s">
         <v>56</v>
       </c>
       <c r="G120" s="10" t="s">
@@ -2649,194 +2649,194 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="10"/>
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="11" t="s">
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="10"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
       <c r="G122" s="10"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="10"/>
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
       <c r="D123" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
       <c r="G123" s="10"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="10"/>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
       <c r="D124" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="10"/>
-      <c r="B125" s="16"/>
-      <c r="C125" s="16"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
       <c r="D125" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
       <c r="G125" s="10"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="10"/>
-      <c r="B126" s="16"/>
-      <c r="C126" s="16"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
       <c r="D126" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
       <c r="G126" s="10"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="10"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="16"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
       <c r="D127" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
       <c r="G127" s="10"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="10"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="16"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
       <c r="D128" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E128" s="16"/>
-      <c r="F128" s="16"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
       <c r="G128" s="10"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="10"/>
-      <c r="B129" s="16"/>
-      <c r="C129" s="16"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
       <c r="D129" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E129" s="16"/>
-      <c r="F129" s="16"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
       <c r="G129" s="10"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="10"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
       <c r="D130" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
       <c r="G130" s="10"/>
     </row>
     <row r="131" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B131" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C131" s="16" t="s">
+      <c r="C131" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E131" s="14" t="s">
+      <c r="E131" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F131" s="16" t="s">
+      <c r="F131" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G131" s="17" t="s">
+      <c r="G131" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="10"/>
-      <c r="B132" s="16"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="11" t="s">
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="14"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="17"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="28"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="10"/>
-      <c r="B133" s="16"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="17"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="28"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="10"/>
-      <c r="B134" s="16"/>
-      <c r="C134" s="16"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
       <c r="D134" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E134" s="14"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="17"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="28"/>
     </row>
     <row r="135" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A135" s="10"/>
-      <c r="B135" s="16"/>
-      <c r="C135" s="16"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
       <c r="D135" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E135" s="14"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="17"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="28"/>
     </row>
     <row r="136" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="16" t="s">
+      <c r="A136" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="B136" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C136" s="16" t="s">
+      <c r="C136" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E136" s="14" t="s">
+      <c r="E136" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F136" s="16" t="s">
+      <c r="F136" s="11" t="s">
         <v>69</v>
       </c>
       <c r="G136" s="10" t="s">
@@ -2844,86 +2844,86 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="16"/>
-      <c r="B137" s="16"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="11" t="s">
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E137" s="14"/>
-      <c r="F137" s="16"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="11"/>
       <c r="G137" s="10"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="16"/>
-      <c r="B138" s="16"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="16"/>
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="11"/>
       <c r="G138" s="10"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="16"/>
-      <c r="B139" s="16"/>
-      <c r="C139" s="16"/>
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
       <c r="D139" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E139" s="14"/>
-      <c r="F139" s="16"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="11"/>
       <c r="G139" s="10"/>
     </row>
     <row r="140" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A140" s="16"/>
-      <c r="B140" s="16"/>
-      <c r="C140" s="16"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
       <c r="D140" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E140" s="14"/>
-      <c r="F140" s="16"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="11"/>
       <c r="G140" s="10"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="16"/>
-      <c r="B141" s="16"/>
-      <c r="C141" s="16"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
       <c r="D141" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E141" s="14"/>
-      <c r="F141" s="16"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="11"/>
       <c r="G141" s="10"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="16"/>
-      <c r="B142" s="16"/>
-      <c r="C142" s="16"/>
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
       <c r="D142" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E142" s="14"/>
-      <c r="F142" s="16"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="11"/>
       <c r="G142" s="10"/>
     </row>
     <row r="143" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A143" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C143" s="16" t="s">
+      <c r="C143" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E143" s="14" t="s">
+      <c r="E143" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F143" s="16" t="s">
+      <c r="F143" s="11" t="s">
         <v>75</v>
       </c>
       <c r="G143" s="10" t="s">
@@ -2932,85 +2932,85 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="10"/>
-      <c r="B144" s="16"/>
-      <c r="C144" s="16"/>
-      <c r="D144" s="11" t="s">
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E144" s="14"/>
-      <c r="F144" s="16"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="11"/>
       <c r="G144" s="10"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="10"/>
-      <c r="B145" s="16"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="16"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="11"/>
       <c r="G145" s="10"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="10"/>
-      <c r="B146" s="16"/>
-      <c r="C146" s="16"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
       <c r="D146" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E146" s="14"/>
-      <c r="F146" s="16"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="11"/>
       <c r="G146" s="10"/>
     </row>
     <row r="147" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A147" s="10"/>
-      <c r="B147" s="16"/>
-      <c r="C147" s="16"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
       <c r="D147" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E147" s="14"/>
-      <c r="F147" s="16"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="11"/>
       <c r="G147" s="10"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="10"/>
-      <c r="B148" s="16"/>
-      <c r="C148" s="16"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
       <c r="D148" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E148" s="14"/>
-      <c r="F148" s="16"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="11"/>
       <c r="G148" s="10"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="10"/>
-      <c r="B149" s="16"/>
-      <c r="C149" s="16"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
       <c r="D149" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E149" s="14"/>
-      <c r="F149" s="16"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="11"/>
       <c r="G149" s="10"/>
     </row>
     <row r="150" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A150" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B150" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C150" s="16" t="s">
+      <c r="C150" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E150" s="14" t="s">
+      <c r="E150" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F150" s="16" t="s">
+      <c r="F150" s="11" t="s">
         <v>79</v>
       </c>
       <c r="G150" s="10" t="s">
@@ -3019,85 +3019,85 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="10"/>
-      <c r="B151" s="16"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="11" t="s">
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="14"/>
-      <c r="F151" s="16"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="11"/>
       <c r="G151" s="10"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="10"/>
-      <c r="B152" s="16"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="16"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="11"/>
       <c r="G152" s="10"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="10"/>
-      <c r="B153" s="16"/>
-      <c r="C153" s="16"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
       <c r="D153" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E153" s="14"/>
-      <c r="F153" s="16"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="11"/>
       <c r="G153" s="10"/>
     </row>
     <row r="154" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A154" s="10"/>
-      <c r="B154" s="16"/>
-      <c r="C154" s="16"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
       <c r="D154" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E154" s="14"/>
-      <c r="F154" s="16"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="11"/>
       <c r="G154" s="10"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="10"/>
-      <c r="B155" s="16"/>
-      <c r="C155" s="16"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
       <c r="D155" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E155" s="14"/>
-      <c r="F155" s="16"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="11"/>
       <c r="G155" s="10"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="10"/>
-      <c r="B156" s="16"/>
-      <c r="C156" s="16"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
       <c r="D156" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E156" s="14"/>
-      <c r="F156" s="16"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="11"/>
       <c r="G156" s="10"/>
     </row>
     <row r="157" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A157" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B157" s="16" t="s">
+      <c r="B157" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C157" s="16" t="s">
+      <c r="C157" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E157" s="14" t="s">
+      <c r="E157" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F157" s="16" t="s">
+      <c r="F157" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G157" s="10" t="s">
@@ -3106,85 +3106,85 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="10"/>
-      <c r="B158" s="16"/>
-      <c r="C158" s="16"/>
-      <c r="D158" s="11" t="s">
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E158" s="14"/>
-      <c r="F158" s="16"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="11"/>
       <c r="G158" s="10"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="10"/>
-      <c r="B159" s="16"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="16"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="11"/>
       <c r="G159" s="10"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="10"/>
-      <c r="B160" s="16"/>
-      <c r="C160" s="16"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
       <c r="D160" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E160" s="14"/>
-      <c r="F160" s="16"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="11"/>
       <c r="G160" s="10"/>
     </row>
     <row r="161" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A161" s="10"/>
-      <c r="B161" s="16"/>
-      <c r="C161" s="16"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
       <c r="D161" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E161" s="14"/>
-      <c r="F161" s="16"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="11"/>
       <c r="G161" s="10"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="10"/>
-      <c r="B162" s="16"/>
-      <c r="C162" s="16"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
       <c r="D162" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E162" s="14"/>
-      <c r="F162" s="16"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="11"/>
       <c r="G162" s="10"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="10"/>
-      <c r="B163" s="16"/>
-      <c r="C163" s="16"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
       <c r="D163" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E163" s="14"/>
-      <c r="F163" s="16"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="11"/>
       <c r="G163" s="10"/>
     </row>
     <row r="164" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A164" s="12" t="s">
+      <c r="A164" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="B164" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C164" s="16" t="s">
+      <c r="C164" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E164" s="14" t="s">
+      <c r="E164" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F164" s="16" t="s">
+      <c r="F164" s="11" t="s">
         <v>89</v>
       </c>
       <c r="G164" s="10" t="s">
@@ -3192,86 +3192,86 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="13"/>
-      <c r="B165" s="16"/>
-      <c r="C165" s="16"/>
-      <c r="D165" s="11" t="s">
+      <c r="A165" s="30"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E165" s="14"/>
-      <c r="F165" s="16"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="11"/>
       <c r="G165" s="10"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="13"/>
-      <c r="B166" s="16"/>
-      <c r="C166" s="16"/>
-      <c r="D166" s="11"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="16"/>
+      <c r="A166" s="30"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="11"/>
       <c r="G166" s="10"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" s="13"/>
-      <c r="B167" s="16"/>
-      <c r="C167" s="16"/>
+      <c r="A167" s="30"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
       <c r="D167" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E167" s="14"/>
-      <c r="F167" s="16"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="11"/>
       <c r="G167" s="10"/>
     </row>
     <row r="168" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A168" s="13"/>
-      <c r="B168" s="16"/>
-      <c r="C168" s="16"/>
+      <c r="A168" s="30"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
       <c r="D168" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E168" s="14"/>
-      <c r="F168" s="16"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="11"/>
       <c r="G168" s="10"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="13"/>
-      <c r="B169" s="16"/>
-      <c r="C169" s="16"/>
+      <c r="A169" s="30"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
       <c r="D169" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E169" s="14"/>
-      <c r="F169" s="16"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="11"/>
       <c r="G169" s="10"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="13"/>
-      <c r="B170" s="16"/>
-      <c r="C170" s="16"/>
+      <c r="A170" s="30"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
       <c r="D170" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E170" s="14"/>
-      <c r="F170" s="16"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="11"/>
       <c r="G170" s="10"/>
     </row>
     <row r="171" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B171" s="16" t="s">
+      <c r="B171" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C171" s="16" t="s">
+      <c r="C171" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E171" s="14" t="s">
+      <c r="E171" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F171" s="15" t="s">
+      <c r="F171" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G171" s="10" t="s">
@@ -3280,44 +3280,44 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="10"/>
-      <c r="B172" s="16"/>
-      <c r="C172" s="16"/>
-      <c r="D172" s="11" t="s">
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E172" s="14"/>
-      <c r="F172" s="15"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="18"/>
       <c r="G172" s="10"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="10"/>
-      <c r="B173" s="16"/>
-      <c r="C173" s="16"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="15"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="18"/>
       <c r="G173" s="10"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="10"/>
-      <c r="B174" s="16"/>
-      <c r="C174" s="16"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
       <c r="D174" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E174" s="14"/>
-      <c r="F174" s="15"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="18"/>
       <c r="G174" s="10"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="10"/>
-      <c r="B175" s="16"/>
-      <c r="C175" s="16"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
       <c r="D175" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E175" s="14"/>
-      <c r="F175" s="15"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="18"/>
       <c r="G175" s="10"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
@@ -3328,6 +3328,121 @@
     </row>
   </sheetData>
   <mergeCells count="139">
+    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E171:E175"/>
+    <mergeCell ref="F171:F175"/>
+    <mergeCell ref="G171:G175"/>
+    <mergeCell ref="C171:C175"/>
+    <mergeCell ref="B171:B175"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="C164:C170"/>
+    <mergeCell ref="E164:E170"/>
+    <mergeCell ref="F164:F170"/>
+    <mergeCell ref="B157:B163"/>
+    <mergeCell ref="C157:C163"/>
+    <mergeCell ref="E157:E163"/>
+    <mergeCell ref="F157:F163"/>
+    <mergeCell ref="G164:G170"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="B143:B149"/>
+    <mergeCell ref="C143:C149"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="C131:C135"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="E131:E135"/>
+    <mergeCell ref="G157:G163"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E143:E149"/>
+    <mergeCell ref="F143:F149"/>
+    <mergeCell ref="G143:G149"/>
+    <mergeCell ref="A143:A149"/>
+    <mergeCell ref="B150:B156"/>
+    <mergeCell ref="C150:C156"/>
+    <mergeCell ref="E150:E156"/>
+    <mergeCell ref="F150:F156"/>
+    <mergeCell ref="G150:G156"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="A150:A156"/>
+    <mergeCell ref="A157:A163"/>
+    <mergeCell ref="F131:F135"/>
+    <mergeCell ref="G131:G135"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E136:E142"/>
+    <mergeCell ref="C136:C142"/>
+    <mergeCell ref="F136:F142"/>
+    <mergeCell ref="G136:G142"/>
+    <mergeCell ref="B120:B130"/>
+    <mergeCell ref="A120:A130"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="C120:C130"/>
+    <mergeCell ref="B136:B142"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="E120:E130"/>
+    <mergeCell ref="F120:F130"/>
+    <mergeCell ref="G120:G130"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="E43:E53"/>
+    <mergeCell ref="F43:F53"/>
+    <mergeCell ref="G43:G53"/>
+    <mergeCell ref="E109:E119"/>
+    <mergeCell ref="F109:F119"/>
+    <mergeCell ref="G109:G119"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="G98:G108"/>
+    <mergeCell ref="G87:G97"/>
+    <mergeCell ref="F65:F75"/>
+    <mergeCell ref="G65:G75"/>
+    <mergeCell ref="G54:G64"/>
+    <mergeCell ref="E10:E20"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="B32:B42"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="F10:F20"/>
+    <mergeCell ref="G10:G20"/>
+    <mergeCell ref="C32:C42"/>
+    <mergeCell ref="E32:E42"/>
+    <mergeCell ref="F32:F42"/>
+    <mergeCell ref="G32:G42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A109:A119"/>
+    <mergeCell ref="B109:B119"/>
+    <mergeCell ref="C109:C119"/>
+    <mergeCell ref="B98:B108"/>
+    <mergeCell ref="C98:C108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="F98:F108"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="B87:B97"/>
+    <mergeCell ref="C87:C97"/>
+    <mergeCell ref="E87:E97"/>
+    <mergeCell ref="F87:F97"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="B76:B86"/>
+    <mergeCell ref="C76:C86"/>
+    <mergeCell ref="E76:E86"/>
+    <mergeCell ref="F76:F86"/>
+    <mergeCell ref="G76:G86"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="A76:A86"/>
+    <mergeCell ref="A87:A97"/>
+    <mergeCell ref="A98:A108"/>
+    <mergeCell ref="B54:B64"/>
+    <mergeCell ref="A54:A64"/>
+    <mergeCell ref="C65:C75"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E65:E75"/>
+    <mergeCell ref="C54:C64"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E54:E64"/>
+    <mergeCell ref="F54:F64"/>
+    <mergeCell ref="B65:B75"/>
+    <mergeCell ref="A65:A75"/>
     <mergeCell ref="G21:G31"/>
     <mergeCell ref="F21:F31"/>
     <mergeCell ref="G2:G4"/>
@@ -3349,124 +3464,9 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C5:C9"/>
-    <mergeCell ref="B54:B64"/>
-    <mergeCell ref="A54:A64"/>
-    <mergeCell ref="C65:C75"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E65:E75"/>
-    <mergeCell ref="C54:C64"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E54:E64"/>
-    <mergeCell ref="F54:F64"/>
-    <mergeCell ref="B65:B75"/>
-    <mergeCell ref="A65:A75"/>
-    <mergeCell ref="B76:B86"/>
-    <mergeCell ref="C76:C86"/>
-    <mergeCell ref="E76:E86"/>
-    <mergeCell ref="F76:F86"/>
-    <mergeCell ref="G76:G86"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="A76:A86"/>
-    <mergeCell ref="A87:A97"/>
-    <mergeCell ref="A98:A108"/>
-    <mergeCell ref="A109:A119"/>
-    <mergeCell ref="B109:B119"/>
-    <mergeCell ref="C109:C119"/>
-    <mergeCell ref="B98:B108"/>
-    <mergeCell ref="C98:C108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="F98:F108"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="B87:B97"/>
-    <mergeCell ref="C87:C97"/>
-    <mergeCell ref="E87:E97"/>
-    <mergeCell ref="F87:F97"/>
-    <mergeCell ref="D88:D89"/>
     <mergeCell ref="A10:A20"/>
     <mergeCell ref="B10:B20"/>
     <mergeCell ref="C10:C20"/>
-    <mergeCell ref="E10:E20"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="B32:B42"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="A43:A53"/>
-    <mergeCell ref="F10:F20"/>
-    <mergeCell ref="G10:G20"/>
-    <mergeCell ref="C32:C42"/>
-    <mergeCell ref="E32:E42"/>
-    <mergeCell ref="F32:F42"/>
-    <mergeCell ref="G32:G42"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E120:E130"/>
-    <mergeCell ref="F120:F130"/>
-    <mergeCell ref="G120:G130"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="E43:E53"/>
-    <mergeCell ref="F43:F53"/>
-    <mergeCell ref="G43:G53"/>
-    <mergeCell ref="E109:E119"/>
-    <mergeCell ref="F109:F119"/>
-    <mergeCell ref="G109:G119"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="G98:G108"/>
-    <mergeCell ref="G87:G97"/>
-    <mergeCell ref="F65:F75"/>
-    <mergeCell ref="G65:G75"/>
-    <mergeCell ref="G54:G64"/>
-    <mergeCell ref="F131:F135"/>
-    <mergeCell ref="G131:G135"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E136:E142"/>
-    <mergeCell ref="C136:C142"/>
-    <mergeCell ref="F136:F142"/>
-    <mergeCell ref="G136:G142"/>
-    <mergeCell ref="B120:B130"/>
-    <mergeCell ref="A120:A130"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="C120:C130"/>
-    <mergeCell ref="B136:B142"/>
-    <mergeCell ref="A136:A142"/>
-    <mergeCell ref="B143:B149"/>
-    <mergeCell ref="C143:C149"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="C131:C135"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="E131:E135"/>
-    <mergeCell ref="G157:G163"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="E143:E149"/>
-    <mergeCell ref="F143:F149"/>
-    <mergeCell ref="G143:G149"/>
-    <mergeCell ref="A143:A149"/>
-    <mergeCell ref="B150:B156"/>
-    <mergeCell ref="C150:C156"/>
-    <mergeCell ref="E150:E156"/>
-    <mergeCell ref="F150:F156"/>
-    <mergeCell ref="G150:G156"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="A150:A156"/>
-    <mergeCell ref="A157:A163"/>
-    <mergeCell ref="B164:B170"/>
-    <mergeCell ref="C164:C170"/>
-    <mergeCell ref="E164:E170"/>
-    <mergeCell ref="F164:F170"/>
-    <mergeCell ref="B157:B163"/>
-    <mergeCell ref="C157:C163"/>
-    <mergeCell ref="E157:E163"/>
-    <mergeCell ref="F157:F163"/>
-    <mergeCell ref="G164:G170"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="A164:A170"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E171:E175"/>
-    <mergeCell ref="F171:F175"/>
-    <mergeCell ref="G171:G175"/>
-    <mergeCell ref="C171:C175"/>
-    <mergeCell ref="B171:B175"/>
-    <mergeCell ref="A171:A175"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3477,7 +3477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2459A66-C6CD-4B4B-BA68-8576A6C99C95}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B18"/>
     </sheetView>
   </sheetViews>
@@ -3515,22 +3515,22 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="18" t="s">
         <v>96</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -3538,44 +3538,44 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -3584,172 +3584,172 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="11" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="22"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="22"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="22"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="22"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="22"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="22"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="22"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="23"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="11" t="s">
         <v>110</v>
       </c>
       <c r="G19" s="10" t="s">
@@ -3758,104 +3758,104 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="11" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="16"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="16"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="11" t="s">
         <v>109</v>
       </c>
       <c r="G28" s="10" t="s">
@@ -3864,99 +3864,99 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
-      <c r="B29" s="16"/>
-      <c r="D29" s="11" t="s">
+      <c r="B29" s="11"/>
+      <c r="D29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="16"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
-      <c r="B30" s="16"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="16"/>
+      <c r="B30" s="11"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="11"/>
       <c r="D31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="16"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="11"/>
       <c r="D32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="16"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
-      <c r="B33" s="16"/>
+      <c r="B33" s="11"/>
       <c r="D33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="16"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
-      <c r="B34" s="16"/>
+      <c r="B34" s="11"/>
       <c r="D34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="16"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
-      <c r="B35" s="16"/>
+      <c r="B35" s="11"/>
       <c r="D35" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="16"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
-      <c r="B36" s="16"/>
+      <c r="B36" s="11"/>
       <c r="D36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="16"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="25" t="s">
         <v>105</v>
       </c>
       <c r="G37" s="10" t="s">
@@ -3965,107 +3965,107 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="11" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="19"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="26"/>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="19"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="26"/>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="19"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="26"/>
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="19"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="26"/>
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="19"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="26"/>
       <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="10"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="19"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="26"/>
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="19"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="26"/>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="10"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="20"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="27"/>
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="25" t="s">
         <v>108</v>
       </c>
       <c r="G46" s="10" t="s">
@@ -4073,108 +4073,108 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="22"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="11" t="s">
+      <c r="A47" s="20"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="19"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="26"/>
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="22"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="19"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="26"/>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="22"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="19"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="26"/>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="22"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="19"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="26"/>
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="22"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="19"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="26"/>
       <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="22"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="19"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="26"/>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="22"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="19"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="26"/>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="23"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="19"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="26"/>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="25" t="s">
         <v>108</v>
       </c>
       <c r="G55" s="10" t="s">
@@ -4183,107 +4183,107 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="11" t="s">
+      <c r="B56" s="11"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="19"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="26"/>
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="10"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="19"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="26"/>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="19"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="19"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="26"/>
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="10"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="19"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="19"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="26"/>
       <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="10"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="19"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="19"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="26"/>
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="10"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="19"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="26"/>
       <c r="D61" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="19"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="26"/>
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="10"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="19"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="19"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="26"/>
       <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="10"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="20"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="27"/>
       <c r="D63" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="19"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="26"/>
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="25" t="s">
         <v>108</v>
       </c>
       <c r="G64" s="10" t="s">
@@ -4292,107 +4292,107 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="10"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="11" t="s">
+      <c r="B65" s="11"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="19"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="26"/>
       <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="10"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="19"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="26"/>
       <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="10"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="19"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="26"/>
       <c r="D67" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="19"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="26"/>
       <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="10"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="19"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="26"/>
       <c r="D68" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="19"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="26"/>
       <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="10"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="19"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="26"/>
       <c r="D69" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="19"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="26"/>
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="10"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="19"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="26"/>
       <c r="D70" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="19"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="26"/>
       <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="10"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="19"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="19"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="26"/>
       <c r="G71" s="10"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="10"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="20"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="27"/>
       <c r="D72" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="19"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="26"/>
       <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="11" t="s">
         <v>108</v>
       </c>
       <c r="G73" s="10" t="s">
@@ -4401,107 +4401,107 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="10"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="11" t="s">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="16"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="11"/>
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="10"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="16"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="11"/>
       <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="10"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
       <c r="D76" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E76" s="14"/>
-      <c r="F76" s="16"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="11"/>
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="10"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
       <c r="D77" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="14"/>
-      <c r="F77" s="16"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="11"/>
       <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="10"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
       <c r="D78" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="16"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="11"/>
       <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="10"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
       <c r="D79" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="16"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="11"/>
       <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="10"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
       <c r="D80" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="16"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="11"/>
       <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="10"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
       <c r="D81" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="16"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="11"/>
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F82" s="18" t="s">
+      <c r="F82" s="25" t="s">
         <v>56</v>
       </c>
       <c r="G82" s="10" t="s">
@@ -4509,173 +4509,173 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="13"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="11" t="s">
+      <c r="A83" s="30"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="19"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="26"/>
       <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="13"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="19"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="26"/>
       <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="13"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
       <c r="D85" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="19"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="26"/>
       <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="13"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
       <c r="D86" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="19"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="26"/>
       <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="13"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
       <c r="D87" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E87" s="14"/>
-      <c r="F87" s="19"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="26"/>
       <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="13"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
       <c r="D88" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E88" s="14"/>
-      <c r="F88" s="19"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="26"/>
       <c r="G88" s="10"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="13"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
       <c r="D89" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E89" s="14"/>
-      <c r="F89" s="19"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="26"/>
       <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="13"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
       <c r="D90" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E90" s="14"/>
-      <c r="F90" s="20"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="27"/>
       <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="E91" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F91" s="16" t="s">
+      <c r="F91" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G91" s="17" t="s">
+      <c r="G91" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="22"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="11" t="s">
+      <c r="A92" s="20"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="14"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="17"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="28"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="22"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="17"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="28"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="22"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
       <c r="D94" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E94" s="14"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="17"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="28"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="23"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
       <c r="D95" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E95" s="14"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="17"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="28"/>
     </row>
     <row r="96" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E96" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F96" s="16" t="s">
+      <c r="F96" s="11" t="s">
         <v>125</v>
       </c>
       <c r="G96" s="10" t="s">
@@ -4684,85 +4684,85 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="10"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="11" t="s">
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="14"/>
-      <c r="F97" s="16"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="11"/>
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="10"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="16"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="11"/>
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="10"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
       <c r="D99" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E99" s="14"/>
-      <c r="F99" s="16"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="11"/>
       <c r="G99" s="10"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="10"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
       <c r="D100" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E100" s="14"/>
-      <c r="F100" s="16"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="11"/>
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="10"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
       <c r="D101" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E101" s="14"/>
-      <c r="F101" s="16"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="11"/>
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="10"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
       <c r="D102" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E102" s="14"/>
-      <c r="F102" s="16"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="11"/>
       <c r="G102" s="10"/>
     </row>
     <row r="103" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="14" t="s">
+      <c r="E103" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F103" s="16" t="s">
+      <c r="F103" s="11" t="s">
         <v>129</v>
       </c>
       <c r="G103" s="10" t="s">
@@ -4771,85 +4771,85 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="10"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="11" t="s">
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="14"/>
-      <c r="F104" s="16"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="11"/>
       <c r="G104" s="10"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="10"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="16"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="11"/>
       <c r="G105" s="10"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="10"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
       <c r="D106" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E106" s="14"/>
-      <c r="F106" s="16"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="11"/>
       <c r="G106" s="10"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="10"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
       <c r="D107" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E107" s="14"/>
-      <c r="F107" s="16"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="11"/>
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="10"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
       <c r="D108" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E108" s="14"/>
-      <c r="F108" s="16"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="11"/>
       <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="10"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
       <c r="D109" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E109" s="14"/>
-      <c r="F109" s="16"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="11"/>
       <c r="G109" s="10"/>
     </row>
     <row r="110" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E110" s="14" t="s">
+      <c r="E110" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F110" s="16" t="s">
+      <c r="F110" s="11" t="s">
         <v>133</v>
       </c>
       <c r="G110" s="10" t="s">
@@ -4858,85 +4858,85 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="10"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="11" t="s">
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="14"/>
-      <c r="F111" s="16"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="11"/>
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="10"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="16"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="11"/>
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="10"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
       <c r="D113" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E113" s="14"/>
-      <c r="F113" s="16"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="11"/>
       <c r="G113" s="10"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="10"/>
-      <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
       <c r="D114" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E114" s="14"/>
-      <c r="F114" s="16"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="11"/>
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="10"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="16"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
       <c r="D115" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E115" s="14"/>
-      <c r="F115" s="16"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="11"/>
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="10"/>
-      <c r="B116" s="16"/>
-      <c r="C116" s="16"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
       <c r="D116" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E116" s="14"/>
-      <c r="F116" s="16"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="11"/>
       <c r="G116" s="10"/>
     </row>
     <row r="117" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="C117" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E117" s="14" t="s">
+      <c r="E117" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F117" s="15" t="s">
+      <c r="F117" s="18" t="s">
         <v>135</v>
       </c>
       <c r="G117" s="10" t="s">
@@ -4945,137 +4945,48 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="10"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="11" t="s">
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E118" s="14"/>
-      <c r="F118" s="15"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="18"/>
       <c r="G118" s="10"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="10"/>
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="15"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="18"/>
       <c r="G119" s="10"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="10"/>
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
       <c r="D120" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E120" s="14"/>
-      <c r="F120" s="15"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="18"/>
       <c r="G120" s="10"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="10"/>
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
       <c r="D121" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E121" s="14"/>
-      <c r="F121" s="15"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="18"/>
       <c r="G121" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="E19:E27"/>
-    <mergeCell ref="F19:F27"/>
-    <mergeCell ref="G19:G27"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="E10:E18"/>
-    <mergeCell ref="F10:F18"/>
-    <mergeCell ref="G10:G18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G37:G45"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="G46:G54"/>
-    <mergeCell ref="E46:E54"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="A28:A36"/>
-    <mergeCell ref="F28:F36"/>
-    <mergeCell ref="G28:G36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="E28:E36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E37:E45"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="F37:F45"/>
-    <mergeCell ref="A64:A72"/>
-    <mergeCell ref="B64:B72"/>
-    <mergeCell ref="E55:E63"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="F55:F63"/>
-    <mergeCell ref="B46:B54"/>
-    <mergeCell ref="A46:A54"/>
-    <mergeCell ref="F46:F54"/>
-    <mergeCell ref="A55:A63"/>
-    <mergeCell ref="B55:B63"/>
-    <mergeCell ref="G73:G81"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="G55:G63"/>
-    <mergeCell ref="C55:C63"/>
-    <mergeCell ref="E64:E72"/>
-    <mergeCell ref="F64:F72"/>
-    <mergeCell ref="G64:G72"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C64:C72"/>
-    <mergeCell ref="A73:A81"/>
-    <mergeCell ref="B82:B90"/>
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E82:E90"/>
-    <mergeCell ref="B73:B81"/>
-    <mergeCell ref="C73:C81"/>
-    <mergeCell ref="E73:E81"/>
-    <mergeCell ref="F73:F81"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="B96:B102"/>
-    <mergeCell ref="C96:C102"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E96:E102"/>
-    <mergeCell ref="G82:G90"/>
-    <mergeCell ref="F82:F90"/>
-    <mergeCell ref="A82:A90"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="F91:F95"/>
-    <mergeCell ref="G91:G95"/>
-    <mergeCell ref="E91:E95"/>
-    <mergeCell ref="F96:F102"/>
-    <mergeCell ref="G96:G102"/>
-    <mergeCell ref="A96:A102"/>
     <mergeCell ref="B103:B109"/>
     <mergeCell ref="C103:C109"/>
     <mergeCell ref="E103:E109"/>
@@ -5097,6 +5008,95 @@
     <mergeCell ref="G110:G116"/>
     <mergeCell ref="D111:D112"/>
     <mergeCell ref="A110:A116"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="B96:B102"/>
+    <mergeCell ref="C96:C102"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E96:E102"/>
+    <mergeCell ref="G82:G90"/>
+    <mergeCell ref="F82:F90"/>
+    <mergeCell ref="A82:A90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="F91:F95"/>
+    <mergeCell ref="G91:G95"/>
+    <mergeCell ref="E91:E95"/>
+    <mergeCell ref="F96:F102"/>
+    <mergeCell ref="G96:G102"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="A73:A81"/>
+    <mergeCell ref="B82:B90"/>
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E82:E90"/>
+    <mergeCell ref="B73:B81"/>
+    <mergeCell ref="C73:C81"/>
+    <mergeCell ref="E73:E81"/>
+    <mergeCell ref="F73:F81"/>
+    <mergeCell ref="G73:G81"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="G55:G63"/>
+    <mergeCell ref="C55:C63"/>
+    <mergeCell ref="E64:E72"/>
+    <mergeCell ref="F64:F72"/>
+    <mergeCell ref="G64:G72"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C64:C72"/>
+    <mergeCell ref="A64:A72"/>
+    <mergeCell ref="B64:B72"/>
+    <mergeCell ref="E55:E63"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="F55:F63"/>
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="A46:A54"/>
+    <mergeCell ref="F46:F54"/>
+    <mergeCell ref="A55:A63"/>
+    <mergeCell ref="B55:B63"/>
+    <mergeCell ref="G37:G45"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="G46:G54"/>
+    <mergeCell ref="E46:E54"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="F28:F36"/>
+    <mergeCell ref="G28:G36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="E28:E36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="F37:F45"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="E19:E27"/>
+    <mergeCell ref="F19:F27"/>
+    <mergeCell ref="G19:G27"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="E10:E18"/>
+    <mergeCell ref="F10:F18"/>
+    <mergeCell ref="G10:G18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
